--- a/files/SEPchanges_Beta_V3.xlsx
+++ b/files/SEPchanges_Beta_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinkerr/Documents/GitHub/sep/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261940C9-4BA4-0A44-88C1-C392F9F118B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1882D3-3C4E-8543-AEBB-A5DCFFA9B47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="13280" xr2:uid="{9C926D27-2CF7-4223-891E-1FC198AF64FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Change</t>
   </si>
@@ -74,18 +74,6 @@
   </si>
   <si>
     <t>Why we have not come to a decision yet</t>
-  </si>
-  <si>
-    <t>Query around removal of Content Links at the top of Service Descriptions</t>
-  </si>
-  <si>
-    <t>Customers on pages with sparse content, often viewed them as a unnecessary. 
-Customers on pages with more lengthy content thought found them to be beneficial.</t>
-  </si>
-  <si>
-    <t>1. More research required.
-2. Actively investigating technological solutions on how to show only links on longer pages.
-3. Not an issue for Alpha. </t>
   </si>
   <si>
     <t>Should we add Search to the homepage</t>
@@ -113,6 +101,65 @@
     <t>There is no longer that confusion between the two
 BUT
 There is still an outsstanding issue around Search being "OR" and not "AND" for certain people.</t>
+  </si>
+  <si>
+    <t>A11Y</t>
+  </si>
+  <si>
+    <t>Removed number from Home Page</t>
+  </si>
+  <si>
+    <t>"Started Trading" added to form</t>
+  </si>
+  <si>
+    <t>Solidified Links at top of Content Listing Template</t>
+  </si>
+  <si>
+    <t>Should we add the phone number back onto the home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost all rounds of testing have identified "not having a visible phone number" as a negative trust issue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongoing discussions about multiple agencies route enquiries and who will eventually run the site in BAU. </t>
+  </si>
+  <si>
+    <t>Home page image left untouched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback from stakeholders around perceived Stock Images, caused us to retest the Home Page images with Scotland is Now images that feature staff and customers. </t>
+  </si>
+  <si>
+    <t>There was very little difference. We made a recommendation on the preferred image but also that it would be a waste of effort changing it, as customers were not that bothered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With ongoing and deeper engagement with A11Y customers, we have brodened out our Accessibility testing to include people with Cognitive&amp; Social Inclusion  Issues. Traditionally we have concentrated on Sight and physical impairment.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing with people experiencing Cognitive issues has unforseen benefits across the board. They tend to consume the site in the same format as Neuro-Typical people but find minor issues to be magnified. Fixing issues for this group, also improves the site for others. 
+This also supports our goal of Adding Simplicity to the site. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several rounds of testing have shown that the number on the Home Page CTA button is confusing. It represented the total of Support + Events. So if a user clicked on the button when it said 100 they might get to a screen that said "25 Support Options". This confused a lot of people. If they used teh site more then they might see 75 Events and then realise that thes totalled 100, but this is Cognitive Dissonance and negatively impacted on users experience. </t>
+  </si>
+  <si>
+    <t>The issue went away when we removed the Number from the Home Page button</t>
+  </si>
+  <si>
+    <t>Many customers have stated that they would like to see the site filtered by what stage of business they are at. These stages include: Startup, Established, Growing, Exporting etc….
+As a first step towards exploting this, we have added an option to th eforms to check if teh company has started trading yet.</t>
+  </si>
+  <si>
+    <t>We will moniotor the support given by our call centre to try and get a better piucture of what this means. 
+It also has a benefit around address lookup as Non Trading companies will not appear on the Company/Address lookup in the same way. 
+We have adapte dteh form to account for this.</t>
+  </si>
+  <si>
+    <t>All Beta rounds of testing have shown that the links at the top of the page are useful (even on short pages) an that the top two items that people expect to see (Cost &amp; Eligibility) aer where they should be (At the top of the listing)</t>
+  </si>
+  <si>
+    <t>We are experiencing continued positive feedback on the links and their position.</t>
   </si>
 </sst>
 </file>
@@ -536,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,18 +607,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -582,72 +629,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="9"/>
@@ -665,27 +742,27 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5"/>
     </row>

--- a/files/SEPchanges_Beta_V3.xlsx
+++ b/files/SEPchanges_Beta_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinkerr/Documents/GitHub/sep/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1882D3-3C4E-8543-AEBB-A5DCFFA9B47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC43432-9EC0-9441-9D28-A9B14387D3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="13280" xr2:uid="{9C926D27-2CF7-4223-891E-1FC198AF64FB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15420" xr2:uid="{9C926D27-2CF7-4223-891E-1FC198AF64FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Change</t>
   </si>
@@ -79,13 +79,6 @@
     <t>Should we add Search to the homepage</t>
   </si>
   <si>
-    <t>Customers have repeatedly expressed the need for a Search option on teh home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. More research required.
-</t>
-  </si>
-  <si>
     <t>Customers found it confusing. (Aug 22nd 2019 testing). The number is the total of Products/Services &amp; Events. This is not easy for people to quickly grasp and was adding no real benefit.</t>
   </si>
   <si>
@@ -93,9 +86,6 @@
   </si>
   <si>
     <t>Customers were confused by the mixing of Search(More results) and Filter(Less Results) options. These have now been separated visually on the side bar.</t>
-  </si>
-  <si>
-    <t>BUT</t>
   </si>
   <si>
     <t>There is no longer that confusion between the two
@@ -160,6 +150,68 @@
   </si>
   <si>
     <t>We are experiencing continued positive feedback on the links and their position.</t>
+  </si>
+  <si>
+    <t>Should there be a home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People are still unsure about who we are </t>
+  </si>
+  <si>
+    <t>Assisted Digital</t>
+  </si>
+  <si>
+    <t>Updated list of categories for Support Options</t>
+  </si>
+  <si>
+    <t>We are experiencing fairly high levels of satisfaction with Categories. People occasionally suggest new ones but not in any great numbers any more</t>
+  </si>
+  <si>
+    <t>Updated list of categories for Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as previous section. We now seem tobe in a fairly good place with this. 
+As new partners come on board, we may have to revisit these categories. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People were confused about not having an initial default distance to search from. 
+We have addded a default distance (15 miles) to the location settings.
+We also got varying feedback from customers in Rural vs Urban locations. This caused us to alter the Distance Options to offer more granularity initially and then larger increases nearer the top end of teh range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This seems to be testing better than before. 
+Map functioanlity is also imminent </t>
+  </si>
+  <si>
+    <t>Should we make it more explicit when sending customers to another site</t>
+  </si>
+  <si>
+    <t>Customers have repeatedly expressed the need for a Search option on the home page</t>
+  </si>
+  <si>
+    <t>Recent test rounds have shown confusion when clicking on Events that are hosted on another website (They all are)</t>
+  </si>
+  <si>
+    <t>This is now at the top of our backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More research required.
+</t>
+  </si>
+  <si>
+    <t>This is linked to the SEARCH ON THE HOMEPAGE discussion. Several customers have suggested just jumping straight to the Support/Events listings page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several people have expressed confusion with our lack of identity. They are unsure who we are and who we represent. Thi s is a major trust issue. </t>
+  </si>
+  <si>
+    <t>Discussion with partners and developing options to test is underway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have not fully explored assisted digital delivery options yet. </t>
+  </si>
+  <si>
+    <t>EFRS has assisted digital processes that we have succesfully Mystery Shopped but this was at the start of Beta (April 2019) and we have not revisited it in light of new funcionality (Mostly Events being added to the site)</t>
   </si>
 </sst>
 </file>
@@ -583,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="133" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,10 +661,10 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -634,88 +686,98 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -744,13 +806,13 @@
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -759,35 +821,57 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">

--- a/files/SEPchanges_Beta_V3.xlsx
+++ b/files/SEPchanges_Beta_V3.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinkerr/Documents/GitHub/sep/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC43432-9EC0-9441-9D28-A9B14387D3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A2D02-F946-A54B-A831-5DEEBDBC1FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15420" xr2:uid="{9C926D27-2CF7-4223-891E-1FC198AF64FB}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15420" xr2:uid="{9C926D27-2CF7-4223-891E-1FC198AF64FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -635,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="133" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.82677165354330717" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="87" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
